--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H2">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I2">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J2">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>119.9164826377209</v>
+        <v>125.17976561087</v>
       </c>
       <c r="R2">
-        <v>1079.248343739488</v>
+        <v>1126.61789049783</v>
       </c>
       <c r="S2">
-        <v>0.0006602952094326147</v>
+        <v>0.001341216039531817</v>
       </c>
       <c r="T2">
-        <v>0.0007287666585589959</v>
+        <v>0.001429986641298999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H3">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I3">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J3">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>128.3279088596134</v>
+        <v>151.8582190855666</v>
       </c>
       <c r="R3">
-        <v>1154.95117973652</v>
+        <v>1366.7239717701</v>
       </c>
       <c r="S3">
-        <v>0.0007066109811817802</v>
+        <v>0.001627057521464256</v>
       </c>
       <c r="T3">
-        <v>0.0007798852941844526</v>
+        <v>0.001734747014456467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H4">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I4">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J4">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>64.43763540636623</v>
+        <v>85.73149016565777</v>
       </c>
       <c r="R4">
-        <v>579.938718657296</v>
+        <v>771.58341149092</v>
       </c>
       <c r="S4">
-        <v>0.000354812458054913</v>
+        <v>0.0009185546013928609</v>
       </c>
       <c r="T4">
-        <v>0.0003916058844255046</v>
+        <v>0.000979350656851698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H5">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I5">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J5">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>146.843654683478</v>
+        <v>93.49665127179166</v>
       </c>
       <c r="R5">
-        <v>881.061928100868</v>
+        <v>560.9799076307501</v>
       </c>
       <c r="S5">
-        <v>0.0008085640905262668</v>
+        <v>0.001001753020676297</v>
       </c>
       <c r="T5">
-        <v>0.0005949405074839799</v>
+        <v>0.0007120371340762621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H6">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I6">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J6">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>73.62042214733647</v>
+        <v>92.23094734789998</v>
       </c>
       <c r="R6">
-        <v>662.5837993260282</v>
+        <v>830.0785261311</v>
       </c>
       <c r="S6">
-        <v>0.0004053755663193702</v>
+        <v>0.0009881918640809175</v>
       </c>
       <c r="T6">
-        <v>0.0004474122978748902</v>
+        <v>0.001053596976941422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.231619</v>
       </c>
       <c r="I7">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J7">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>56.74441721971824</v>
+        <v>50.056583866147</v>
       </c>
       <c r="R7">
-        <v>510.6997549774641</v>
+        <v>450.509254795323</v>
       </c>
       <c r="S7">
-        <v>0.0003124513497066131</v>
+        <v>0.0005363222469527944</v>
       </c>
       <c r="T7">
-        <v>0.0003448520038235634</v>
+        <v>0.0005718196218721592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.231619</v>
       </c>
       <c r="I8">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J8">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>60.72469973342335</v>
+        <v>60.72469973342333</v>
       </c>
       <c r="R8">
-        <v>546.5222976008101</v>
+        <v>546.5222976008099</v>
       </c>
       <c r="S8">
-        <v>0.0003343679488110732</v>
+        <v>0.0006506238518723392</v>
       </c>
       <c r="T8">
-        <v>0.0003690413156164798</v>
+        <v>0.0006936864675527709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.231619</v>
       </c>
       <c r="I9">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J9">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>30.49185556248756</v>
+        <v>34.28210227511689</v>
       </c>
       <c r="R9">
-        <v>274.426700062388</v>
+        <v>308.538920476052</v>
       </c>
       <c r="S9">
-        <v>0.0001678970706257901</v>
+        <v>0.0003673094067230329</v>
       </c>
       <c r="T9">
-        <v>0.0001853077008493544</v>
+        <v>0.0003916203872873066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.231619</v>
       </c>
       <c r="I10">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J10">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>69.48634102787152</v>
+        <v>37.38721623859584</v>
       </c>
       <c r="R10">
-        <v>416.9180461672291</v>
+        <v>224.323297431575</v>
       </c>
       <c r="S10">
-        <v>0.0003826121071305675</v>
+        <v>0.0004005785907007232</v>
       </c>
       <c r="T10">
-        <v>0.0002815255387332588</v>
+        <v>0.0002847276981528745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.231619</v>
       </c>
       <c r="I11">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J11">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>34.83714547266212</v>
+        <v>36.88108959499</v>
       </c>
       <c r="R11">
-        <v>313.5343092539591</v>
+        <v>331.92980635491</v>
       </c>
       <c r="S11">
-        <v>0.0001918235071603922</v>
+        <v>0.0003951557879887518</v>
       </c>
       <c r="T11">
-        <v>0.0002117152666706014</v>
+        <v>0.000421309827351263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H12">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I12">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J12">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>9970.277993683858</v>
+        <v>12368.42588233937</v>
       </c>
       <c r="R12">
-        <v>89732.50194315471</v>
+        <v>111315.8329410544</v>
       </c>
       <c r="S12">
-        <v>0.05489926531475851</v>
+        <v>0.132519270156818</v>
       </c>
       <c r="T12">
-        <v>0.06059222234121534</v>
+        <v>0.1412902772211794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H13">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I13">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J13">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>10669.63354440487</v>
+        <v>15004.39881971458</v>
       </c>
       <c r="R13">
-        <v>96026.7018996438</v>
+        <v>135039.5893774312</v>
       </c>
       <c r="S13">
-        <v>0.05875012142455848</v>
+        <v>0.1607619271559491</v>
       </c>
       <c r="T13">
-        <v>0.06484240544059283</v>
+        <v>0.1714022211833506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H14">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I14">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J14">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>5357.571570857804</v>
+        <v>8470.726692304723</v>
       </c>
       <c r="R14">
-        <v>48218.14413772024</v>
+        <v>76236.5402307425</v>
       </c>
       <c r="S14">
-        <v>0.02950035528574615</v>
+        <v>0.09075807460389466</v>
       </c>
       <c r="T14">
-        <v>0.03255949012013916</v>
+        <v>0.09676504787319054</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H15">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I15">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J15">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>12209.09775369157</v>
+        <v>9237.965863403646</v>
       </c>
       <c r="R15">
-        <v>73254.58652214942</v>
+        <v>55427.79518042188</v>
       </c>
       <c r="S15">
-        <v>0.06722686140329789</v>
+        <v>0.09897852043564191</v>
       </c>
       <c r="T15">
-        <v>0.04946544560716418</v>
+        <v>0.07035305167188181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H16">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I16">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J16">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>6121.06074724387</v>
+        <v>9112.907591443749</v>
       </c>
       <c r="R16">
-        <v>55089.54672519482</v>
+        <v>82016.16832299375</v>
       </c>
       <c r="S16">
-        <v>0.03370434988709208</v>
+        <v>0.09763860611793862</v>
       </c>
       <c r="T16">
-        <v>0.03719943155005739</v>
+        <v>0.1041009787449644</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H17">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I17">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J17">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>289.5293840053853</v>
+        <v>356.2412085604935</v>
       </c>
       <c r="R17">
-        <v>1737.176304032312</v>
+        <v>2137.447251362961</v>
       </c>
       <c r="S17">
-        <v>0.001594233428496142</v>
+        <v>0.003816882229583306</v>
       </c>
       <c r="T17">
-        <v>0.001173035082945732</v>
+        <v>0.002713005928371758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H18">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I18">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J18">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>309.838143894455</v>
+        <v>432.163738547445</v>
       </c>
       <c r="R18">
-        <v>1859.02886336673</v>
+        <v>2592.98243128467</v>
       </c>
       <c r="S18">
-        <v>0.001706059397448068</v>
+        <v>0.004630340494850199</v>
       </c>
       <c r="T18">
-        <v>0.00125531649946875</v>
+        <v>0.00329120482564112</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H19">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I19">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J19">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>155.5798542084673</v>
+        <v>243.977846733194</v>
       </c>
       <c r="R19">
-        <v>933.479125250804</v>
+        <v>1463.867080399164</v>
       </c>
       <c r="S19">
-        <v>0.0008566681590255492</v>
+        <v>0.002614056670677936</v>
       </c>
       <c r="T19">
-        <v>0.000630335424547858</v>
+        <v>0.001858048223149714</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H20">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I20">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J20">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>354.5430282011393</v>
+        <v>266.0762295158813</v>
       </c>
       <c r="R20">
-        <v>1418.172112804557</v>
+        <v>1064.304918063525</v>
       </c>
       <c r="S20">
-        <v>0.001952217559334127</v>
+        <v>0.002850825810572221</v>
       </c>
       <c r="T20">
-        <v>0.0009576262571125164</v>
+        <v>0.001350894414100908</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H21">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I21">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J21">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>177.7510064144412</v>
+        <v>262.474242458895</v>
       </c>
       <c r="R21">
-        <v>1066.506038486647</v>
+        <v>1574.84545475337</v>
       </c>
       <c r="S21">
-        <v>0.000978749004520603</v>
+        <v>0.002812232969377473</v>
       </c>
       <c r="T21">
-        <v>0.0007201623671785005</v>
+        <v>0.001998910173006971</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H22">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I22">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J22">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>30411.77431677879</v>
+        <v>8400.862236061681</v>
       </c>
       <c r="R22">
-        <v>273705.9688510092</v>
+        <v>75607.76012455513</v>
       </c>
       <c r="S22">
-        <v>0.1674561198762035</v>
+        <v>0.09000952447800915</v>
       </c>
       <c r="T22">
-        <v>0.1848210242844261</v>
+        <v>0.09596695371922218</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H23">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I23">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J23">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>32544.97894649799</v>
+        <v>10191.26351392321</v>
       </c>
       <c r="R23">
-        <v>292904.8105184819</v>
+        <v>91721.37162530886</v>
       </c>
       <c r="S23">
-        <v>0.17920216818216</v>
+        <v>0.1091924563148588</v>
       </c>
       <c r="T23">
-        <v>0.1977851170915814</v>
+        <v>0.1164195396256805</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H24">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I24">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J24">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>16341.89714691359</v>
+        <v>5753.473292263679</v>
       </c>
       <c r="R24">
-        <v>147077.0743222223</v>
+        <v>51781.25963037311</v>
       </c>
       <c r="S24">
-        <v>0.08998326303271097</v>
+        <v>0.06164455273538154</v>
       </c>
       <c r="T24">
-        <v>0.09931436876989233</v>
+        <v>0.06572459940996411</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H25">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I25">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J25">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>37240.71943951579</v>
+        <v>6274.596241928242</v>
       </c>
       <c r="R25">
-        <v>223444.3166370947</v>
+        <v>37647.57745156946</v>
       </c>
       <c r="S25">
-        <v>0.2050582880755822</v>
+        <v>0.06722803066607956</v>
       </c>
       <c r="T25">
-        <v>0.1508816473559678</v>
+        <v>0.04778508604121747</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H26">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I26">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J26">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>18670.72494291542</v>
+        <v>6189.654364585939</v>
       </c>
       <c r="R26">
-        <v>168036.5244862388</v>
+        <v>55706.88928127346</v>
       </c>
       <c r="S26">
-        <v>0.1028064696801166</v>
+        <v>0.06631793622898351</v>
       </c>
       <c r="T26">
-        <v>0.113467319339489</v>
+        <v>0.07070729851923728</v>
       </c>
     </row>
   </sheetData>
